--- a/__tests__/_data/result.xlsx
+++ b/__tests__/_data/result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\__tests__\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\__tests__\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,25 +264,25 @@
     <t>df8c9ffe-db95-4ccd-a43e-0646905e4992</t>
   </si>
   <si>
-    <t>D:/Current/image-parsing/__tests__/test-data/images-barcode//no-roll.jpg</t>
-  </si>
-  <si>
     <t>eab21561-d52c-485f-8b94-f84e8919bc9e</t>
   </si>
   <si>
-    <t>D:/Current/image-parsing/__tests__/test-data/images-barcode//10023.jpg</t>
-  </si>
-  <si>
     <t>10023</t>
   </si>
   <si>
     <t>1c0e9adc-a474-4e33-babd-0aa3a67463e0</t>
   </si>
   <si>
-    <t>D:/Current/image-parsing/__tests__/test-data/images-barcode//10025.tif</t>
-  </si>
-  <si>
     <t>10025</t>
+  </si>
+  <si>
+    <t>D:/Current/image-parsing/__tests__/_data/images-barcode//no-roll.jpg</t>
+  </si>
+  <si>
+    <t>D:/Current/image-parsing/__tests__/_data/images-barcode//10023.jpg</t>
+  </si>
+  <si>
+    <t>D:/Current/image-parsing/__tests__/_data/images-barcode//10025.tif</t>
   </si>
 </sst>
 </file>
@@ -688,12 +688,15 @@
   <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2:BV4"/>
+      <selection activeCell="BN9" sqref="BN9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="69" max="69" width="63.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="BR2" t="b">
         <v>0</v>
@@ -1144,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BR3" t="b">
         <v>1</v>
@@ -1368,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="BW3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BR4" t="b">
         <v>1</v>
@@ -1595,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="BW4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BW1 A3:BR4 A2:BR2 BW2 BW3:BW4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:BW1 A4:BP4 A2:BP2 BW2 BW3:BW4 BR2 A3:BP3 BR3 BR4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>